--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\A_TDF\Laptrinh\PMQLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Jupiter\PMQLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8749557F-80E0-4908-BD60-4D6263B5030C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="15" windowWidth="20370" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
     <sheet name="MAY" sheetId="2" r:id="rId2"/>
+    <sheet name="ARDUINO" sheetId="3" r:id="rId3"/>
+    <sheet name="ManHinh" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -119,16 +120,138 @@
   </si>
   <si>
     <t>Máy</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ của phần Arduino</t>
+  </si>
+  <si>
+    <t>http://arduino.vn/bai-viet/1496-esp8266-ket-noi-internet-phan-1-cai-dat-esp8266-lam-mot-socket-client-ket-noi-toi</t>
+  </si>
+  <si>
+    <t>ESP8266 kết nối Internet - Phần 1: Cài đặt ESP8266 làm một socket client kết nối tới socket server trong mạng LAN</t>
+  </si>
+  <si>
+    <t>ESP8266 kết nối Internet - Phần 2: Arduino gặp ESP8266, hai đứa nói chuyện bằng JSON</t>
+  </si>
+  <si>
+    <t>http://arduino.vn/bai-viet/1497-esp8266-ket-noi-internet-phan-2-arduino-gap-esp8266-hai-dua-noi-chuyen-bang-json</t>
+  </si>
+  <si>
+    <t>http://arduino.vn/bai-viet/1511-esp8266-ket-noi-internet-phan-3-arduino-gap-smartphone-hai-dua-noi-chuyen-bang-json</t>
+  </si>
+  <si>
+    <t>ESP8266 kết nối Internet - Phần 3: Arduino gặp Smartphone, hai đứa nói chuyện bằng JSON thông qua Socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết nối internet </t>
+  </si>
+  <si>
+    <t>http://arduino.vn/bai-viet/1172-lap-trinh-esp8266-bang-arduino-ide</t>
+  </si>
+  <si>
+    <t>Lập trình ESP8266 bằng Arduino IDE</t>
+  </si>
+  <si>
+    <t>http://arduino.vn/bai-viet/1219-tap-lenh-voi-esp8266</t>
+  </si>
+  <si>
+    <t>Tập lệnh AT với ESP8266</t>
+  </si>
+  <si>
+    <t>http://arduino.vn/bai-viet/1171-dieu-khien-thiet-bi-qua-web-sever-voi-esp8266-khong-can-arduino</t>
+  </si>
+  <si>
+    <t>Điều khiển thiết bị qua Web Sever với ESP8266 không cần Arduino</t>
+  </si>
+  <si>
+    <t>2 thông tin cần nhận</t>
+  </si>
+  <si>
+    <t>Công tắc hành trình - để đếm số lần nhấn (có thể sử dụng 2 CTHT để đếm chính xác: 1 cái ở đầu, 1 cái khi kết thúc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mạch tích hợp đầy đủ nguồn </t>
+  </si>
+  <si>
+    <t>Các dây tín hiệu đc nối với domino</t>
+  </si>
+  <si>
+    <t>Chống nhiễu trong mạch, và phần dây tín hiệu nối với CTHT</t>
+  </si>
+  <si>
+    <t>Ghi thông tin vào file .csv - UTF-8</t>
+  </si>
+  <si>
+    <t>Nguồn 24v của đèn báo dừng - khi nào có điện, ko nào tắt điện (có thể test bằng nguồn riêng)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lteGQrY5Yu4</t>
+  </si>
+  <si>
+    <t>ESP8266 IoT Control and Monitor From Anywhere With Arduino and Python | Home Automation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fREqfdCphRA</t>
+  </si>
+  <si>
+    <t>WebSockets + ESP8266 | a Tutorial for Beginners + Code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OJIoFtOrXNs&amp;list=PLq1zl76OthiPkemArvlVV2pzp5So0LC_j&amp;index=10</t>
+  </si>
+  <si>
+    <t>TBĐC thông minh: 10. Python và MQTT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFz9D9-BQ64</t>
+  </si>
+  <si>
+    <t>[Flutter ESP8266] #1. Gửi và nhận dữ liệu đến ESP8266 (NodeMCU) bằng websocket</t>
+  </si>
+  <si>
+    <t>WebServer trên Esp8266 #1 Dựng Server- Học Cơ Điện Tử</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R2hqIpvA7zY&amp;list=PL14WBbXTfR-4X5K_JqbLlO3txcmG8pZ4f</t>
+  </si>
+  <si>
+    <t>[tkinter bài 1] Tạo cửa sổ cơ bản - Ngôi Nhà IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông tin có ích cho việc tạo màn hình </t>
+  </si>
+  <si>
+    <t>Thông tin có ích cho việc sử dụng arduino kết nối internet thông qua ESP8266</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hj_mC6Is2B8&amp;list=PL14WBbXTfR-46Io9ZkdpImV9Ozrct6YPk&amp;index=11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-7-2022 Tìm tài liệu đã tạm ổn - tiến hành làm thôi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">websocket trước </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tạo màn hình </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,13 +274,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,106 +749,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>17</v>
       </c>
@@ -733,61 +859,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CC328C-DD4E-45A3-B7AB-BFB1D4161F93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -802,4 +928,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G18" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
     <sheet name="MAY" sheetId="2" r:id="rId2"/>
     <sheet name="ARDUINO" sheetId="3" r:id="rId3"/>
     <sheet name="ManHinh" sheetId="4" r:id="rId4"/>
+    <sheet name="FEE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -234,6 +235,21 @@
   </si>
   <si>
     <t xml:space="preserve">tạo màn hình </t>
+  </si>
+  <si>
+    <t>Phần mềm thu phí</t>
+  </si>
+  <si>
+    <t>Tính năng báo cáo hiệu quả công việc của thợ máy - Xuất report hàng tháng: 500k</t>
+  </si>
+  <si>
+    <t>Tính năng quản lý tình trạng máy - sản xuất: 200k/máy</t>
+  </si>
+  <si>
+    <t>Tính năng Quản lý đơn hàng: 3-&gt;5M</t>
+  </si>
+  <si>
+    <t>Tính năng lịch sử sửa máy: 50k/máy</t>
   </si>
 </sst>
 </file>
@@ -343,7 +359,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5135336" y="0"/>
-          <a:ext cx="2407102" cy="4933950"/>
+          <a:ext cx="2407102" cy="4775200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -862,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1117,7 @@
   <dimension ref="C1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,4 +1141,44 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="1"/>
+    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>Tính năng lịch sử sửa máy: 50k/máy</t>
+  </si>
+  <si>
+    <t>[Unit 9] Socket programming</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-Fs6wAV7tEw</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LWdynDo5jqo</t>
+  </si>
+  <si>
+    <t>[Đồ án mạng máy tính] Share 1: Làm quen với Python socket</t>
   </si>
 </sst>
 </file>
@@ -878,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -948,10 +963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1086,12 +1101,31 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
       <c r="G18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1107,6 +1141,8 @@
     <hyperlink ref="G14" r:id="rId9"/>
     <hyperlink ref="G16" r:id="rId10"/>
     <hyperlink ref="G18" r:id="rId11"/>
+    <hyperlink ref="G20" r:id="rId12"/>
+    <hyperlink ref="G21" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -265,6 +265,24 @@
   </si>
   <si>
     <t>[Đồ án mạng máy tính] Share 1: Làm quen với Python socket</t>
+  </si>
+  <si>
+    <t>KẾT NỐI VỚI MQTT SỬ DỤNG ESP8266/ESP32 - P1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qBM61K-wbn8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yEsSB0H9h9I</t>
+  </si>
+  <si>
+    <t>[Làm chủ IoT với bSmart] #2 - MQTT Là gì? | Hướng dẫn tạo MQTT Broker miễn phí</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GEvDxiajhf8</t>
+  </si>
+  <si>
+    <t>P8 Thêm thư viện arduino cho Wemos D1 để có thể lập trình wemos D1 với Arduino IDE</t>
   </si>
 </sst>
 </file>
@@ -963,10 +981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1126,6 +1144,30 @@
       </c>
       <c r="H21" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1143,6 +1185,9 @@
     <hyperlink ref="G18" r:id="rId11"/>
     <hyperlink ref="G20" r:id="rId12"/>
     <hyperlink ref="G21" r:id="rId13"/>
+    <hyperlink ref="G23" r:id="rId14"/>
+    <hyperlink ref="G24" r:id="rId15"/>
+    <hyperlink ref="G25" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>P8 Thêm thư viện arduino cho Wemos D1 để có thể lập trình wemos D1 với Arduino IDE</t>
+  </si>
+  <si>
+    <t>mqtt</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,10 +984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1100,10 +1103,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1168,6 +1174,11 @@
       </c>
       <c r="H25" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
-    <sheet name="MAY" sheetId="2" r:id="rId2"/>
-    <sheet name="ARDUINO" sheetId="3" r:id="rId3"/>
+    <sheet name="ARDUINO" sheetId="3" r:id="rId2"/>
+    <sheet name="MAY" sheetId="2" r:id="rId3"/>
     <sheet name="ManHinh" sheetId="4" r:id="rId4"/>
-    <sheet name="FEE" sheetId="5" r:id="rId5"/>
+    <sheet name="MQTT" sheetId="6" r:id="rId5"/>
+    <sheet name="FEE" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -286,6 +287,18 @@
   </si>
   <si>
     <t>mqtt</t>
+  </si>
+  <si>
+    <t>demen</t>
+  </si>
+  <si>
+    <t>te^34TH24KJd</t>
+  </si>
+  <si>
+    <t>test_esp</t>
+  </si>
+  <si>
+    <t>ngayhomnay</t>
   </si>
 </sst>
 </file>
@@ -804,9 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -912,82 +923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,6 +1143,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E2"/>
@@ -1237,6 +1248,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -196,9 +196,6 @@
     <t>https://www.youtube.com/watch?v=fREqfdCphRA</t>
   </si>
   <si>
-    <t>WebSockets + ESP8266 | a Tutorial for Beginners + Code</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=OJIoFtOrXNs&amp;list=PLq1zl76OthiPkemArvlVV2pzp5So0LC_j&amp;index=10</t>
   </si>
   <si>
@@ -295,10 +292,40 @@
     <t>te^34TH24KJd</t>
   </si>
   <si>
-    <t>test_esp</t>
-  </si>
-  <si>
-    <t>ngayhomnay</t>
+    <t>https://console.hivemq.cloud/</t>
+  </si>
+  <si>
+    <t>WebSockets + ESP8266 | Hướng dẫn dành cho người mới bắt đầu + Mã</t>
+  </si>
+  <si>
+    <t>ngoinhaiot.com</t>
+  </si>
+  <si>
+    <t>jhf&amp;623HGb</t>
+  </si>
+  <si>
+    <t>TDSOCK2022</t>
+  </si>
+  <si>
+    <t>http://hivemq.com/demos/websocket-client/</t>
+  </si>
+  <si>
+    <t>Kết nối demo với 1 server khác</t>
+  </si>
+  <si>
+    <t>const char* ssid = "cafe La_Kai";</t>
+  </si>
+  <si>
+    <t>const char* password = "0123456789";</t>
+  </si>
+  <si>
+    <t>const char* mqtt_server = "broker.mqttdashboard.com";</t>
+  </si>
+  <si>
+    <t>Buổi 5/5: ESP32 Client giao thức MQTT, Smart Config</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qxn4haZ6014</t>
   </si>
 </sst>
 </file>
@@ -923,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,7 +966,7 @@
         <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1020,7 +1047,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>52</v>
@@ -1031,93 +1058,104 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
         <v>58</v>
       </c>
-      <c r="H16" t="s">
-        <v>59</v>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.35">
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
         <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.35">
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="G24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.35">
       <c r="G25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
         <v>83</v>
-      </c>
-      <c r="H25" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1129,15 +1167,16 @@
     <hyperlink ref="G7" r:id="rId5"/>
     <hyperlink ref="G9" r:id="rId6"/>
     <hyperlink ref="G11" r:id="rId7"/>
-    <hyperlink ref="G12" r:id="rId8"/>
-    <hyperlink ref="G14" r:id="rId9"/>
-    <hyperlink ref="G16" r:id="rId10"/>
-    <hyperlink ref="G18" r:id="rId11"/>
-    <hyperlink ref="G20" r:id="rId12"/>
-    <hyperlink ref="G21" r:id="rId13"/>
-    <hyperlink ref="G23" r:id="rId14"/>
-    <hyperlink ref="G24" r:id="rId15"/>
-    <hyperlink ref="G25" r:id="rId16"/>
+    <hyperlink ref="G27" r:id="rId8"/>
+    <hyperlink ref="G16" r:id="rId9"/>
+    <hyperlink ref="G18" r:id="rId10"/>
+    <hyperlink ref="G20" r:id="rId11"/>
+    <hyperlink ref="G21" r:id="rId12"/>
+    <hyperlink ref="G23" r:id="rId13"/>
+    <hyperlink ref="G28" r:id="rId14"/>
+    <hyperlink ref="G25" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="G30" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1227,15 +1266,15 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1248,33 +1287,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>89</v>
       </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1290,27 +1367,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -326,6 +326,39 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=qxn4haZ6014</t>
+  </si>
+  <si>
+    <t>Vấn đề cần giải quyết là ko có kết nối thì dữ liệu vẫn phải đảm bảo được lưu trữ và trả về khi kết nối lại</t>
+  </si>
+  <si>
+    <t>http://iot47.com/iot-bai-7-esp8266-arduino-ide-va-giao-thuc-mqtt/</t>
+  </si>
+  <si>
+    <t>broker.mqttdashboard.com</t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>8000-1883</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQBWMHMTTO8</t>
+  </si>
+  <si>
+    <t>MQTT in Python | building MQTT dashboard - kết nối MQTT dùng python với GUI tkinter</t>
+  </si>
+  <si>
+    <t>http://arduino.vn/bai-viet/80-su-dung-digitalread-va-giao-tiep-serial-digital-read-serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V - </t>
+  </si>
+  <si>
+    <t>Đọc tín hiệu digital - xác nhận tình trạng máy chạy hay dừng - Mình chỉ cần chuyển dòng điện 24V từ đèn dừng vào chân digital để biết được tình trạng máy đang chạy hay dừng - giải quyết được về phần lý thuyết (có thể áp dụng cho đếm số lượng vớ chạy ra mà ko phải thêm CTHT)</t>
   </si>
 </sst>
 </file>
@@ -950,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1156,6 +1189,25 @@
       </c>
       <c r="H30" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1177,6 +1229,8 @@
     <hyperlink ref="G25" r:id="rId15"/>
     <hyperlink ref="G17" r:id="rId16"/>
     <hyperlink ref="G30" r:id="rId17"/>
+    <hyperlink ref="G32" r:id="rId18"/>
+    <hyperlink ref="G34" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1287,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1309,6 +1363,22 @@
         <v>86</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>89</v>
@@ -1343,6 +1413,16 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -359,6 +359,24 @@
   </si>
   <si>
     <t>Đọc tín hiệu digital - xác nhận tình trạng máy chạy hay dừng - Mình chỉ cần chuyển dòng điện 24V từ đèn dừng vào chân digital để biết được tình trạng máy đang chạy hay dừng - giải quyết được về phần lý thuyết (có thể áp dụng cho đếm số lượng vớ chạy ra mà ko phải thêm CTHT)</t>
+  </si>
+  <si>
+    <t>D1-1</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>JSON - tìm hiểu cách truyền thông tin giữa ESP qua python</t>
+  </si>
+  <si>
+    <t>chạy,đứng (1,0)</t>
+  </si>
+  <si>
+    <t>số lượng vớ</t>
   </si>
 </sst>
 </file>
@@ -985,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,6 +1124,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>57</v>
       </c>
@@ -1113,7 +1134,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1121,7 +1148,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>64</v>
       </c>
@@ -1129,7 +1162,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>75</v>
       </c>
@@ -1140,7 +1181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
         <v>76</v>
       </c>
@@ -1148,7 +1189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
       <c r="G23" s="1" t="s">
         <v>79</v>
       </c>
@@ -1156,7 +1197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
       <c r="G25" s="1" t="s">
         <v>82</v>
       </c>
@@ -1164,7 +1205,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
         <v>84</v>
       </c>
@@ -1175,7 +1216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
       <c r="G28" s="1" t="s">
         <v>80</v>
       </c>
@@ -1183,7 +1224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
       <c r="G30" s="1" t="s">
         <v>98</v>
       </c>
@@ -1191,7 +1232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
       <c r="G32" s="1" t="s">
         <v>105</v>
       </c>
@@ -1344,7 +1385,7 @@
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="1"/>
+    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="MAY" sheetId="2" r:id="rId3"/>
     <sheet name="ManHinh" sheetId="4" r:id="rId4"/>
     <sheet name="MQTT" sheetId="6" r:id="rId5"/>
-    <sheet name="FEE" sheetId="5" r:id="rId6"/>
+    <sheet name="MEGAESP" sheetId="7" r:id="rId6"/>
+    <sheet name="FEE" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="150">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -377,6 +378,108 @@
   </si>
   <si>
     <t>số lượng vớ</t>
+  </si>
+  <si>
+    <t>TX-RX</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eA_lp9tbOT4</t>
+  </si>
+  <si>
+    <t>Truyền dữ liệu sử dụng JSON - nên xài</t>
+  </si>
+  <si>
+    <t>máy:(D2-2); Tình trạng:(0-chạy,1-đứng); Số lượng: tổng đôi(biến đếm)</t>
+  </si>
+  <si>
+    <t>Sử dụng cổng TX và RX software để cài đặt chương trình bình thường khi cắm dây</t>
+  </si>
+  <si>
+    <t>40'</t>
+  </si>
+  <si>
+    <t>=&gt; board wemos đang bình thường, chỉnh qua softwareSerial thì bị mất kết nối chân RX hoặc 1 vấn đề gì khác, khi khởi động thông báo nhận được cũng khác thông báo trước đó, =&gt; mua board khác về test thử, chứ tạm thời chưa hiểu đc vấn đề</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDktrUOnqq4</t>
+  </si>
+  <si>
+    <t>MEGA+WiFi R3</t>
+  </si>
+  <si>
+    <t>Tích hợp Dip Switch cấu hình linh hoạt:</t>
+  </si>
+  <si>
+    <t>CH340G &lt;-&gt; ATmega328P (Nạp code cho ATmega2560 qua cổng USB).</t>
+  </si>
+  <si>
+    <t>CH340G &lt;-&gt; ESP8266 (Nạp code cho ESP8266 qua cổng USB).</t>
+  </si>
+  <si>
+    <t>CH340G &lt;-&gt; ESP8266 (Kết nối ESP8266 với cổng USB máy tính (không nạp code)).</t>
+  </si>
+  <si>
+    <t>ESP8266 &lt;-&gt; ATmega2560 (Kết nối ESP8266 và ATmega2560 qua giao tiếp UART).</t>
+  </si>
+  <si>
+    <t>Table DIP- switch:</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>ATmega2560&lt;-&gt;ESP8266</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>USB &lt;-&gt;ATmega2560</t>
+  </si>
+  <si>
+    <t>USB&lt;-&gt;ESP8266 (Update firmware or sketch)</t>
+  </si>
+  <si>
+    <t>USB&lt;-&gt;ESP8266 (communication)</t>
+  </si>
+  <si>
+    <t>All independent</t>
+  </si>
+  <si>
+    <t>Special solution:</t>
+  </si>
+  <si>
+    <t>USB &lt;-&gt;ATmega328&lt;-&gt; ESP8266</t>
+  </si>
+  <si>
+    <t>SWITH 2</t>
+  </si>
+  <si>
+    <t>USB &lt;-&gt; ATmega2560&lt;-&gt; ESP8266</t>
+  </si>
+  <si>
+    <t>To RXD3/TXD3</t>
+  </si>
+  <si>
+    <t>USB converter CH340G connect to RX0/TX0 of ATmega2560</t>
+  </si>
+  <si>
+    <t>ESP8266 connect to RX3/TX3 of ATmega25</t>
+  </si>
+  <si>
+    <t>Infos link:http://robotdyn.com/~QJpWf - International</t>
+  </si>
+  <si>
+    <t>Ngày 29-7-22</t>
+  </si>
+  <si>
+    <t>Còn đoạn đường rất xa mới nghĩ tới vấn đề này đc, cố lên</t>
   </si>
 </sst>
 </file>
@@ -421,9 +524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1001,14 +1105,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1250,6 +1355,46 @@
       <c r="H34" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G43" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1272,6 +1417,7 @@
     <hyperlink ref="G30" r:id="rId17"/>
     <hyperlink ref="G32" r:id="rId18"/>
     <hyperlink ref="G34" r:id="rId19"/>
+    <hyperlink ref="G42" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1385,7 +1531,7 @@
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,10 +1624,308 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="58.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1511,6 +1955,16 @@
         <v>72</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="6"/>
+    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
-    <sheet name="ARDUINO" sheetId="3" r:id="rId2"/>
-    <sheet name="MAY" sheetId="2" r:id="rId3"/>
-    <sheet name="ManHinh" sheetId="4" r:id="rId4"/>
-    <sheet name="MQTT" sheetId="6" r:id="rId5"/>
-    <sheet name="MEGAESP" sheetId="7" r:id="rId6"/>
-    <sheet name="FEE" sheetId="5" r:id="rId7"/>
+    <sheet name="TienDo" sheetId="8" r:id="rId2"/>
+    <sheet name="ARDUINO" sheetId="3" r:id="rId3"/>
+    <sheet name="MAY" sheetId="2" r:id="rId4"/>
+    <sheet name="ManHinh" sheetId="4" r:id="rId5"/>
+    <sheet name="MQTT" sheetId="6" r:id="rId6"/>
+    <sheet name="MEGAESP" sheetId="7" r:id="rId7"/>
+    <sheet name="FEE" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="156">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -480,6 +481,24 @@
   </si>
   <si>
     <t>Còn đoạn đường rất xa mới nghĩ tới vấn đề này đc, cố lên</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qutUNuySdMc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Hgm8VkpUlw</t>
+  </si>
+  <si>
+    <t>Mega 2560 nhận dữ liệu từ cảm biến độ ẩm truyền qua ESP và sau đó truyền lên Server =&gt; đúng ý mình</t>
+  </si>
+  <si>
+    <t>Nếu mà sử dụng Serial3 thì bật qua RXD3/TXD3 để nạp (nạp chạy được nên chưa thử trường hợp để RXD0/TXD0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã nạp được code trên MEGA+WiFi R3, truyền nhận dữ liệu các chân qua cổng giao tiếp RXD3/TXD3 và truyền thông qua mạng dùng MQTT, python là nơi xuất ra màn hình </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ra chân và gắn thử vào 10 máy thực tế để kiểm tra số liệu (tình trạng máy -on,off- sau đó sẽ gắn biến đếm SL vào), sau đó sẽ sử dụng JSON để chuẩn hóa dữ liệu </t>
   </si>
 </sst>
 </file>
@@ -524,10 +543,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1105,10 +1125,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44771</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1394,7 +1452,17 @@
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="G44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1418,12 +1486,13 @@
     <hyperlink ref="G32" r:id="rId18"/>
     <hyperlink ref="G34" r:id="rId19"/>
     <hyperlink ref="G42" r:id="rId20"/>
+    <hyperlink ref="G44" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1495,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E2"/>
   <sheetViews>
@@ -1526,12 +1595,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1622,12 +1691,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1635,37 +1704,37 @@
     <col min="2" max="2" width="58.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>131</v>
       </c>
@@ -1673,7 +1742,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>1</v>
       </c>
@@ -1696,7 +1765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>133</v>
       </c>
@@ -1722,7 +1791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>136</v>
       </c>
@@ -1748,7 +1817,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -1773,8 +1842,11 @@
       <c r="I14" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>138</v>
       </c>
@@ -1800,7 +1872,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>139</v>
       </c>
@@ -1920,12 +1992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PMQLSX/QLSX.xlsx
+++ b/PMQLSX/QLSX.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="1"/>
+    <workbookView xWindow="30" yWindow="20" windowWidth="20370" windowHeight="10910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="157">
   <si>
     <t>Làm phần mềm quản lý Sản xuất</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ra chân và gắn thử vào 10 máy thực tế để kiểm tra số liệu (tình trạng máy -on,off- sau đó sẽ gắn biến đếm SL vào), sau đó sẽ sử dụng JSON để chuẩn hóa dữ liệu </t>
+  </si>
+  <si>
+    <t>hàn mạch hơi chuối, nút bấm vào thì thông, bỏ ra thì đứt mạch (đáng lẻ ko cần nút bấm), thêm cái là dây vào không ăn nhập nút bấm và cũng ko ăn nhập luôn pin digital, làm loạn xạ</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,9 +1152,17 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
+        <v>44773</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>44771</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1496,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1568,9 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
